--- a/rms_data.xlsx
+++ b/rms_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohtadybarakat/Documents/Bricks_dataset/Bricks_ML/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3387295D-B0FB-484C-AA5F-B62A1300AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -24,12 +30,15 @@
   <si>
     <t>Z</t>
   </si>
+  <si>
+    <t>fall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,14 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,22 +451,28 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9504384952922169</v>
+        <v>0.95043849529221691</v>
       </c>
       <c r="C2">
-        <v>2.048034287907418</v>
+        <v>2.0480342879074178</v>
       </c>
       <c r="D2">
         <v>1.065624490876385</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -424,8 +485,11 @@
       <c r="D3">
         <v>1.116044602852214</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -438,8 +502,11 @@
       <c r="D4">
         <v>1.259629575179412</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -452,159 +519,875 @@
       <c r="D5">
         <v>1.42828568570857</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.981862199492633</v>
+        <v>1.9818621994926331</v>
       </c>
       <c r="C6">
-        <v>3.001481115864114</v>
+        <v>3.0014811158641139</v>
       </c>
       <c r="D6">
-        <v>2.318045153428495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.3180451534284949</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03328118236645585</v>
+        <v>2.1055805074407821</v>
       </c>
       <c r="C7">
-        <v>0.08529013108606369</v>
+        <v>3.291378052094764</v>
       </c>
       <c r="D7">
-        <v>0.02146419520660009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1.77797189244952</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06750436889821908</v>
+        <v>1.9556545117617481</v>
       </c>
       <c r="C8">
-        <v>0.04317465839125524</v>
+        <v>2.458365540493193</v>
       </c>
       <c r="D8">
-        <v>0.003088028472501992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1.90698009222386</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03726572305738988</v>
+        <v>1.425907083285807</v>
       </c>
       <c r="C9">
-        <v>0.07160259855946233</v>
+        <v>3.3210420497256519</v>
       </c>
       <c r="D9">
-        <v>0.07651025076279327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.0608899884548828</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0308443078446949</v>
+        <v>1.8381286034132971</v>
       </c>
       <c r="C10">
-        <v>0.05382602339481354</v>
+        <v>2.7161997696376021</v>
       </c>
       <c r="D10">
-        <v>0.02004089284084129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.0028778413733712</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08462014972857541</v>
+        <v>1.9708353217747261</v>
       </c>
       <c r="C11">
-        <v>0.06662270787388558</v>
+        <v>2.9197073374281919</v>
       </c>
       <c r="D11">
-        <v>0.09237894398407913</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1.2699639219194301</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05862556923223591</v>
+        <v>1.187866225476415</v>
       </c>
       <c r="C12">
-        <v>0.03608180004280891</v>
+        <v>2.6227421644462949</v>
       </c>
       <c r="D12">
-        <v>0.05567449755594998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.927552140191406</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08739224012121712</v>
+        <v>1.4811770294677411</v>
       </c>
       <c r="C13">
-        <v>0.04907082270320778</v>
+        <v>2.721000841062061</v>
       </c>
       <c r="D13">
-        <v>0.07523799840793806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1.879840257494688</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.09412978976835135</v>
+        <v>1.1180251859473731</v>
       </c>
       <c r="C14">
-        <v>0.05772210035832277</v>
+        <v>2.559443247126481</v>
       </c>
       <c r="D14">
-        <v>0.03540724967517844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1.8088863900665639</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.06679390432592555</v>
+        <v>1.9363936545146241</v>
       </c>
       <c r="C15">
-        <v>0.04669991020861092</v>
+        <v>2.2576867689880848</v>
       </c>
       <c r="D15">
-        <v>0.06626076522884046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.139351070170197</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.06795740675953878</v>
+        <v>1.5293740184325939</v>
       </c>
       <c r="C16">
-        <v>0.01240158429475897</v>
+        <v>3.6330381902169342</v>
       </c>
       <c r="D16">
-        <v>0.06557573331264248</v>
+        <v>1.8203477358562581</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.015201216330724</v>
+      </c>
+      <c r="C17">
+        <v>2.6008211714005669</v>
+      </c>
+      <c r="D17">
+        <v>1.9690977325085921</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.790094599492287</v>
+      </c>
+      <c r="C18">
+        <v>3.0506927698114121</v>
+      </c>
+      <c r="D18">
+        <v>1.2284763775304131</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.034784578632838</v>
+      </c>
+      <c r="C19">
+        <v>3.3853603598460769</v>
+      </c>
+      <c r="D19">
+        <v>2.000599049282239</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.418757330247068</v>
+      </c>
+      <c r="C20">
+        <v>3.2966460496102399</v>
+      </c>
+      <c r="D20">
+        <v>1.4075205439409639</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.98442242086509701</v>
+      </c>
+      <c r="C21">
+        <v>2.221978628770251</v>
+      </c>
+      <c r="D21">
+        <v>1.8678395646134811</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2.0214272991100568</v>
+      </c>
+      <c r="C22">
+        <v>3.227516360012102</v>
+      </c>
+      <c r="D22">
+        <v>1.8929725641174151</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.1237879312328549</v>
+      </c>
+      <c r="C23">
+        <v>2.321917884590889</v>
+      </c>
+      <c r="D23">
+        <v>1.7743383156320509</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1.9153454390833631</v>
+      </c>
+      <c r="C24">
+        <v>2.2135679443600922</v>
+      </c>
+      <c r="D24">
+        <v>1.1303823800335031</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2.0839138886949611</v>
+      </c>
+      <c r="C25">
+        <v>2.7420180814423878</v>
+      </c>
+      <c r="D25">
+        <v>2.138507694951254</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.9327509835960299</v>
+      </c>
+      <c r="C26">
+        <v>2.7513908503457269</v>
+      </c>
+      <c r="D26">
+        <v>2.0974270707340912</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.481084869130319E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.421428145677266E-2</v>
+      </c>
+      <c r="D27">
+        <v>9.8314473635311775E-2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2.820077439431087E-2</v>
+      </c>
+      <c r="C28">
+        <v>6.6651233190732864E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.5427607918737107E-2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9.5111607375358453E-2</v>
+      </c>
+      <c r="C29">
+        <v>7.5222395866073516E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.2764877954752621E-2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3.4100832592365238E-2</v>
+      </c>
+      <c r="C30">
+        <v>9.0934633421397099E-2</v>
+      </c>
+      <c r="D30">
+        <v>7.8632535696264161E-3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3.1404774334656951E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.457695305865451E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.7215565283518029E-2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3.4597431579574643E-2</v>
+      </c>
+      <c r="C32">
+        <v>6.6771247645895565E-2</v>
+      </c>
+      <c r="D32">
+        <v>7.3518301489763183E-2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>8.7142339121606904E-2</v>
+      </c>
+      <c r="C33">
+        <v>1.073589057905092E-2</v>
+      </c>
+      <c r="D33">
+        <v>8.0500371669316173E-2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.201572958963484E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.5961299234844327E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.9943001905390257E-2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8.752996656196714E-2</v>
+      </c>
+      <c r="C35">
+        <v>8.3414850871988175E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.403851318649004E-2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>6.7270338615989786E-2</v>
+      </c>
+      <c r="C36">
+        <v>8.3561572211689639E-2</v>
+      </c>
+      <c r="D36">
+        <v>9.9984543808687043E-2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>7.0897484612539002E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.1379369169600761E-2</v>
+      </c>
+      <c r="D37">
+        <v>6.6341945541310079E-2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3.7923391420277668E-2</v>
+      </c>
+      <c r="C38">
+        <v>1.2459681972141661E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.8288812085243797E-2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4.363737544700054E-2</v>
+      </c>
+      <c r="C39">
+        <v>6.287085218278389E-2</v>
+      </c>
+      <c r="D39">
+        <v>5.1493713332574242E-2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3.4232110174515988E-2</v>
+      </c>
+      <c r="C40">
+        <v>6.0413982097427238E-2</v>
+      </c>
+      <c r="D40">
+        <v>7.7056980843921416E-2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>9.4750884580925843E-3</v>
+      </c>
+      <c r="C41">
+        <v>1.9994469480930161E-2</v>
+      </c>
+      <c r="D41">
+        <v>5.4922441983308617E-2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>5.7567426573772888E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.7338272152350769E-2</v>
+      </c>
+      <c r="D42">
+        <v>9.0419908862086409E-2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3.122849727130458E-2</v>
+      </c>
+      <c r="C43">
+        <v>8.0429776020559035E-2</v>
+      </c>
+      <c r="D43">
+        <v>4.1014592710332802E-2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>9.3872875409430942E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.0798046621902812E-2</v>
+      </c>
+      <c r="D44">
+        <v>6.8112653961487982E-2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1.2833312072359051E-2</v>
+      </c>
+      <c r="C45">
+        <v>7.6346032717931169E-3</v>
+      </c>
+      <c r="D45">
+        <v>8.0960877708056211E-2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>6.0762168780111807E-2</v>
+      </c>
+      <c r="C46">
+        <v>3.117995923601713E-3</v>
+      </c>
+      <c r="D46">
+        <v>1.7350280871897428E-2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>7.8407800075585329E-2</v>
+      </c>
+      <c r="C47">
+        <v>6.0971699972422223E-2</v>
+      </c>
+      <c r="D47">
+        <v>2.545018381177358E-2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1.4876267560986129E-2</v>
+      </c>
+      <c r="C48">
+        <v>1.196599483336659E-2</v>
+      </c>
+      <c r="D48">
+        <v>6.5660687227238598E-2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>4.9941244006842689E-2</v>
+      </c>
+      <c r="C49">
+        <v>9.6880193463357911E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.018944547546682E-2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>6.3817931467229257E-3</v>
+      </c>
+      <c r="C50">
+        <v>9.0038440811938542E-2</v>
+      </c>
+      <c r="D50">
+        <v>4.9479989624633507E-2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>7.9682114844574672E-2</v>
+      </c>
+      <c r="C51">
+        <v>6.2683850120461335E-2</v>
+      </c>
+      <c r="D51">
+        <v>1.4074046118762409E-2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>4.1130750603121879E-2</v>
+      </c>
+      <c r="C52">
+        <v>5.0366574244426698E-2</v>
+      </c>
+      <c r="D52">
+        <v>1.697041679600064E-3</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>8.0911481842663016E-2</v>
+      </c>
+      <c r="C53">
+        <v>3.7144224563081148E-2</v>
+      </c>
+      <c r="D53">
+        <v>2.9425115091513059E-2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>6.043714205194272E-2</v>
+      </c>
+      <c r="C54">
+        <v>3.9010272588593763E-2</v>
+      </c>
+      <c r="D54">
+        <v>9.8841193493084997E-2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9.2803170400645466E-2</v>
+      </c>
+      <c r="C55">
+        <v>4.5940099175280861E-3</v>
+      </c>
+      <c r="D55">
+        <v>9.9422541026674222E-2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1.784952976203432E-2</v>
+      </c>
+      <c r="C56">
+        <v>7.9387390785908798E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.4056431990023237E-2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
